--- a/mitraIntegra/projecct/All Candidats Area Timur.xlsx
+++ b/mitraIntegra/projecct/All Candidats Area Timur.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhap\File Kuliah Semester 6\PT. SMI\CV Pelamar Area Timur (08-03-2022)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kuliah lur\CV\mitraIntegra\projecct\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6C643A-3B87-4E8C-9882-A2C41EA563F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7900,7 +7901,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8003,7 +8007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8131,6 +8135,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8412,84 +8419,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AO190" sqref="AO190"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="3"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" style="20" customWidth="1"/>
     <col min="14" max="14" width="21" style="20" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="3" customWidth="1"/>
     <col min="20" max="20" width="16" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="3"/>
-    <col min="23" max="23" width="16.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="3"/>
-    <col min="31" max="31" width="12.85546875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="3"/>
+    <col min="23" max="23" width="16.109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="3"/>
+    <col min="31" max="31" width="12.88671875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" style="3" customWidth="1"/>
     <col min="34" max="34" width="13" style="3" customWidth="1"/>
     <col min="35" max="35" width="14" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" style="3" customWidth="1"/>
-    <col min="37" max="37" width="17.7109375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" style="3" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" style="3" customWidth="1"/>
-    <col min="40" max="41" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="9.140625" style="3"/>
-    <col min="45" max="46" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="9.140625" style="3"/>
-    <col min="50" max="52" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="9.140625" style="3"/>
-    <col min="56" max="58" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="9.140625" style="3"/>
-    <col min="62" max="63" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="67" width="9.140625" style="3"/>
-    <col min="68" max="69" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="9.140625" style="3"/>
-    <col min="73" max="73" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="9.140625" style="3"/>
-    <col min="77" max="77" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="80" width="9.140625" style="3"/>
-    <col min="81" max="81" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="9.140625" style="3"/>
-    <col min="85" max="85" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.5703125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="17.6640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" style="3" customWidth="1"/>
+    <col min="40" max="41" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="9.109375" style="3"/>
+    <col min="45" max="46" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="9.109375" style="3"/>
+    <col min="50" max="52" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="9.109375" style="3"/>
+    <col min="56" max="58" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="9.109375" style="3"/>
+    <col min="62" max="63" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="67" width="9.109375" style="3"/>
+    <col min="68" max="69" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="9.109375" style="3"/>
+    <col min="73" max="73" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="9.109375" style="3"/>
+    <col min="77" max="77" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="80" width="9.109375" style="3"/>
+    <col min="81" max="81" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="9.109375" style="3"/>
+    <col min="85" max="85" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.5546875" style="3" customWidth="1"/>
     <col min="87" max="87" width="17" style="3" customWidth="1"/>
-    <col min="88" max="91" width="9.140625" style="3"/>
+    <col min="88" max="91" width="9.109375" style="3"/>
     <col min="92" max="92" width="17" style="12" customWidth="1"/>
-    <col min="93" max="93" width="12.85546875" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="3"/>
+    <col min="93" max="93" width="12.88671875" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8771,7 +8778,7 @@
       </c>
       <c r="CP1" s="6"/>
     </row>
-    <row r="2" spans="1:94" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:94" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
@@ -8787,7 +8794,7 @@
       <c r="E2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="48">
         <v>36380</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -8933,7 +8940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:94" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>105</v>
       </c>
@@ -8949,7 +8956,7 @@
       <c r="E3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="48">
         <v>31114</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -9145,7 +9152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:94" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -9161,7 +9168,7 @@
       <c r="E4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="48">
         <v>36131</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -9301,7 +9308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:94" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:94" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>148</v>
       </c>
@@ -9317,7 +9324,7 @@
       <c r="E5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="48">
         <v>35642</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -9507,7 +9514,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:94" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:94" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>174</v>
       </c>
@@ -9523,7 +9530,7 @@
       <c r="E6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="48">
         <v>35013</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -9725,7 +9732,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:94" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:94" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>201</v>
       </c>
@@ -9741,7 +9748,7 @@
       <c r="E7" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="48">
         <v>34763</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -9916,7 +9923,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="8" spans="1:94" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:94" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>222</v>
       </c>
@@ -10128,7 +10135,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:94" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:94" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>244</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="10" spans="1:94" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>260</v>
       </c>
@@ -10475,7 +10482,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:94" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:94" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>279</v>
       </c>
@@ -10661,7 +10668,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:94" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>222</v>
       </c>
@@ -10873,7 +10880,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:94" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>1767</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="14" spans="1:94" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>307</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:94" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>324</v>
       </c>
@@ -11354,7 +11361,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:94" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>338</v>
       </c>
@@ -11568,7 +11575,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:93" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:93" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>358</v>
       </c>
@@ -11744,7 +11751,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:93" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:93" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>375</v>
       </c>
@@ -11977,7 +11984,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="19" spans="1:93" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:93" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>406</v>
       </c>
@@ -12149,7 +12156,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:93" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:93" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>423</v>
       </c>
@@ -12315,7 +12322,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:93" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:93" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>439</v>
       </c>
@@ -12539,7 +12546,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:93" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:93" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>460</v>
       </c>
@@ -12741,7 +12748,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:93" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:93" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>478</v>
       </c>
@@ -12949,7 +12956,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:93" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:93" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>496</v>
       </c>
@@ -13161,7 +13168,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:93" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:93" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>521</v>
       </c>
@@ -13327,7 +13334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:93" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:93" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>535</v>
       </c>
@@ -13473,7 +13480,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:93" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:93" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>543</v>
       </c>
@@ -13671,7 +13678,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:93" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:93" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>565</v>
       </c>
@@ -13885,7 +13892,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:93" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:93" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>581</v>
       </c>
@@ -14055,7 +14062,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:93" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:93" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>595</v>
       </c>
@@ -14249,7 +14256,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="31" spans="1:93" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:93" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>612</v>
       </c>
@@ -14411,7 +14418,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:93" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:93" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>623</v>
       </c>
@@ -14569,7 +14576,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:93" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:93" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>637</v>
       </c>
@@ -14741,7 +14748,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="34" spans="1:93" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:93" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>653</v>
       </c>
@@ -14913,7 +14920,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="35" spans="1:93" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:93" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>669</v>
       </c>
@@ -15095,7 +15102,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:93" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:93" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>684</v>
       </c>
@@ -15319,7 +15326,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="37" spans="1:93" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:93" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>703</v>
       </c>
@@ -15525,7 +15532,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="38" spans="1:93" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:93" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>728</v>
       </c>
@@ -15711,7 +15718,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="39" spans="1:93" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:93" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>742</v>
       </c>
@@ -15948,7 +15955,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="40" spans="1:93" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:93" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>774</v>
       </c>
@@ -16160,7 +16167,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="41" spans="1:93" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:93" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>795</v>
       </c>
@@ -16332,7 +16339,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="42" spans="1:93" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:93" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>806</v>
       </c>
@@ -16524,7 +16531,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="43" spans="1:93" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:93" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>823</v>
       </c>
@@ -16716,7 +16723,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="44" spans="1:93" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:93" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>840</v>
       </c>
@@ -16930,7 +16937,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="45" spans="1:93" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:93" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>859</v>
       </c>
@@ -17162,7 +17169,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="46" spans="1:93" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:93" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>883</v>
       </c>
@@ -17360,7 +17367,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="47" spans="1:93" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:93" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>902</v>
       </c>
@@ -17546,7 +17553,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="48" spans="1:93" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:93" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>915</v>
       </c>
@@ -17704,7 +17711,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="49" spans="1:92" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:92" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>924</v>
       </c>
@@ -17876,7 +17883,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="50" spans="1:92" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:92" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>935</v>
       </c>
@@ -18068,7 +18075,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="51" spans="1:92" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:92" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>959</v>
       </c>
@@ -18252,7 +18259,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="52" spans="1:92" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:92" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>976</v>
       </c>
@@ -18406,7 +18413,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="53" spans="1:92" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>986</v>
       </c>
@@ -18566,7 +18573,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="54" spans="1:92" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:92" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>997</v>
       </c>
@@ -18742,7 +18749,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="55" spans="1:92" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:92" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>1013</v>
       </c>
@@ -18892,7 +18899,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="56" spans="1:92" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:92" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>1024</v>
       </c>
@@ -19080,7 +19087,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="57" spans="1:92" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:92" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>1038</v>
       </c>
@@ -19242,7 +19249,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="58" spans="1:92" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:92" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>1048</v>
       </c>
@@ -19410,7 +19417,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="59" spans="1:92" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>1062</v>
       </c>
@@ -19604,7 +19611,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="60" spans="1:92" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:92" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>1079</v>
       </c>
@@ -19806,7 +19813,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="61" spans="1:92" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:92" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>1778</v>
       </c>
@@ -19938,7 +19945,7 @@
       <c r="CM61" s="6"/>
       <c r="CN61" s="11"/>
     </row>
-    <row r="62" spans="1:92" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:92" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>1097</v>
       </c>
@@ -20150,7 +20157,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:92" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:92" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>1114</v>
       </c>
@@ -20334,7 +20341,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="64" spans="1:92" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:92" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>1127</v>
       </c>
@@ -20506,7 +20513,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="65" spans="1:93" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:93" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>1140</v>
       </c>
@@ -20701,7 +20708,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="66" spans="1:93" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:93" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>1157</v>
       </c>
@@ -20899,7 +20906,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="67" spans="1:93" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:93" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>1174</v>
       </c>
@@ -21079,7 +21086,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="68" spans="1:93" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:93" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>1190</v>
       </c>
@@ -21245,7 +21252,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="69" spans="1:93" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:93" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>1765</v>
       </c>
@@ -21365,7 +21372,7 @@
       <c r="CM69" s="6"/>
       <c r="CN69" s="11"/>
     </row>
-    <row r="70" spans="1:93" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:93" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>1207</v>
       </c>
@@ -21579,7 +21586,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="71" spans="1:93" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:93" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>1226</v>
       </c>
@@ -21753,7 +21760,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="72" spans="1:93" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:93" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>1241</v>
       </c>
@@ -21925,7 +21932,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="73" spans="1:93" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:93" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>1258</v>
       </c>
@@ -22126,7 +22133,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="74" spans="1:93" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:93" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>1280</v>
       </c>
@@ -22306,7 +22313,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="75" spans="1:93" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:93" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -22400,7 +22407,7 @@
       <c r="CM75" s="6"/>
       <c r="CN75" s="11"/>
     </row>
-    <row r="76" spans="1:93" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:93" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>1294</v>
       </c>
@@ -22580,7 +22587,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="77" spans="1:93" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:93" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>1773</v>
       </c>
@@ -22714,7 +22721,7 @@
       <c r="CM77" s="6"/>
       <c r="CN77" s="11"/>
     </row>
-    <row r="78" spans="1:93" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:93" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>1308</v>
       </c>
@@ -22912,7 +22919,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="79" spans="1:93" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:93" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>1328</v>
       </c>
@@ -23072,7 +23079,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="80" spans="1:93" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:93" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>1337</v>
       </c>
@@ -23232,7 +23239,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="81" spans="1:93" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:93" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>1350</v>
       </c>
@@ -23393,7 +23400,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="82" spans="1:93" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:93" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>1360</v>
       </c>
@@ -23586,7 +23593,7 @@
       </c>
       <c r="CO82" s="6"/>
     </row>
-    <row r="83" spans="1:93" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:93" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>1378</v>
       </c>
@@ -23777,7 +23784,7 @@
       </c>
       <c r="CO83" s="6"/>
     </row>
-    <row r="84" spans="1:93" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:93" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>1395</v>
       </c>
@@ -23954,7 +23961,7 @@
       </c>
       <c r="CO84" s="6"/>
     </row>
-    <row r="85" spans="1:93" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:93" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>1406</v>
       </c>
@@ -24171,7 +24178,7 @@
       </c>
       <c r="CO85" s="6"/>
     </row>
-    <row r="86" spans="1:93" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:93" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>1424</v>
       </c>
@@ -24344,7 +24351,7 @@
       </c>
       <c r="CO86" s="6"/>
     </row>
-    <row r="87" spans="1:93" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:93" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>1439</v>
       </c>
@@ -24607,7 +24614,7 @@
       </c>
       <c r="CO87" s="6"/>
     </row>
-    <row r="88" spans="1:93" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:93" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>1456</v>
       </c>
@@ -24782,7 +24789,7 @@
       </c>
       <c r="CO88" s="6"/>
     </row>
-    <row r="89" spans="1:93" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:93" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>1467</v>
       </c>
@@ -24973,7 +24980,7 @@
       </c>
       <c r="CO89" s="6"/>
     </row>
-    <row r="90" spans="1:93" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:93" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>1482</v>
       </c>
@@ -25158,7 +25165,7 @@
       </c>
       <c r="CO90" s="6"/>
     </row>
-    <row r="91" spans="1:93" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:93" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>1623</v>
       </c>
@@ -25313,7 +25320,7 @@
       <c r="CN91" s="11"/>
       <c r="CO91" s="6"/>
     </row>
-    <row r="92" spans="1:93" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:93" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>1612</v>
       </c>
@@ -25461,7 +25468,7 @@
       <c r="CM92" s="6"/>
       <c r="CN92" s="6"/>
     </row>
-    <row r="93" spans="1:93" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:93" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>1618</v>
       </c>
@@ -25595,7 +25602,7 @@
       <c r="CM93" s="6"/>
       <c r="CN93" s="6"/>
     </row>
-    <row r="94" spans="1:93" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:93" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>1501</v>
       </c>
@@ -25757,7 +25764,7 @@
       <c r="CM94" s="6"/>
       <c r="CN94" s="6"/>
     </row>
-    <row r="95" spans="1:93" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:93" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>1511</v>
       </c>
@@ -25895,7 +25902,7 @@
       <c r="CM95" s="6"/>
       <c r="CN95" s="6"/>
     </row>
-    <row r="96" spans="1:93" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:93" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>1517</v>
       </c>
@@ -26017,7 +26024,7 @@
       <c r="CM96" s="6"/>
       <c r="CN96" s="6"/>
     </row>
-    <row r="97" spans="1:92" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>1522</v>
       </c>
@@ -26167,7 +26174,7 @@
       <c r="CM97" s="6"/>
       <c r="CN97" s="6"/>
     </row>
-    <row r="98" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>1532</v>
       </c>
@@ -26305,7 +26312,7 @@
       <c r="CM98" s="6"/>
       <c r="CN98" s="6"/>
     </row>
-    <row r="99" spans="1:92" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:92" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>1539</v>
       </c>
@@ -26465,7 +26472,7 @@
       <c r="CM99" s="6"/>
       <c r="CN99" s="6"/>
     </row>
-    <row r="100" spans="1:92" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:92" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>1557</v>
       </c>
@@ -26617,7 +26624,7 @@
       <c r="CM100" s="6"/>
       <c r="CN100" s="6"/>
     </row>
-    <row r="101" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>1568</v>
       </c>
@@ -26749,7 +26756,7 @@
       <c r="CM101" s="6"/>
       <c r="CN101" s="6"/>
     </row>
-    <row r="102" spans="1:92" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:92" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>1572</v>
       </c>
@@ -26877,7 +26884,7 @@
       <c r="CM102" s="6"/>
       <c r="CN102" s="6"/>
     </row>
-    <row r="103" spans="1:92" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:92" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>1575</v>
       </c>
@@ -27035,7 +27042,7 @@
       <c r="CM103" s="6"/>
       <c r="CN103" s="6"/>
     </row>
-    <row r="104" spans="1:92" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:92" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>1593</v>
       </c>
@@ -27179,7 +27186,7 @@
       <c r="CM104" s="6"/>
       <c r="CN104" s="6"/>
     </row>
-    <row r="105" spans="1:92" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:92" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>1600</v>
       </c>
@@ -27323,7 +27330,7 @@
       <c r="CM105" s="6"/>
       <c r="CN105" s="6"/>
     </row>
-    <row r="106" spans="1:92" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>1608</v>
       </c>
@@ -27461,7 +27468,7 @@
       <c r="CM106" s="6"/>
       <c r="CN106" s="6"/>
     </row>
-    <row r="107" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>1631</v>
       </c>
@@ -27609,7 +27616,7 @@
       <c r="CM107" s="6"/>
       <c r="CN107" s="6"/>
     </row>
-    <row r="108" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:92" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>1640</v>
       </c>
@@ -27741,7 +27748,7 @@
       <c r="CM108" s="6"/>
       <c r="CN108" s="6"/>
     </row>
-    <row r="109" spans="1:92" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:92" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>1482</v>
       </c>
@@ -27883,7 +27890,7 @@
       <c r="CM109" s="6"/>
       <c r="CN109" s="6"/>
     </row>
-    <row r="110" spans="1:92" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:92" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>1651</v>
       </c>
@@ -28001,7 +28008,7 @@
       <c r="CM110" s="6"/>
       <c r="CN110" s="6"/>
     </row>
-    <row r="111" spans="1:92" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>1656</v>
       </c>
@@ -28137,7 +28144,7 @@
       <c r="CM111" s="6"/>
       <c r="CN111" s="6"/>
     </row>
-    <row r="112" spans="1:92" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>1661</v>
       </c>
@@ -28283,7 +28290,7 @@
       <c r="CM112" s="6"/>
       <c r="CN112" s="6"/>
     </row>
-    <row r="113" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>1668</v>
       </c>
@@ -28411,7 +28418,7 @@
       <c r="CM113" s="6"/>
       <c r="CN113" s="6"/>
     </row>
-    <row r="114" spans="1:92" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:92" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>1350</v>
       </c>
@@ -28541,7 +28548,7 @@
       <c r="CM114" s="6"/>
       <c r="CN114" s="6"/>
     </row>
-    <row r="115" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>1674</v>
       </c>
@@ -28671,7 +28678,7 @@
       <c r="CM115" s="6"/>
       <c r="CN115" s="6"/>
     </row>
-    <row r="116" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>1678</v>
       </c>
@@ -28791,7 +28798,7 @@
       <c r="CM116" s="6"/>
       <c r="CN116" s="6"/>
     </row>
-    <row r="117" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>1681</v>
       </c>
@@ -28921,7 +28928,7 @@
       <c r="CM117" s="6"/>
       <c r="CN117" s="6"/>
     </row>
-    <row r="118" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>1593</v>
       </c>
@@ -29045,7 +29052,7 @@
       <c r="CM118" s="6"/>
       <c r="CN118" s="6"/>
     </row>
-    <row r="119" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>1687</v>
       </c>
@@ -29175,7 +29182,7 @@
       <c r="CM119" s="6"/>
       <c r="CN119" s="6"/>
     </row>
-    <row r="120" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>1692</v>
       </c>
@@ -29303,7 +29310,7 @@
       <c r="CM120" s="6"/>
       <c r="CN120" s="6"/>
     </row>
-    <row r="121" spans="1:92" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:92" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>1698</v>
       </c>
@@ -29431,7 +29438,7 @@
       <c r="CM121" s="6"/>
       <c r="CN121" s="6"/>
     </row>
-    <row r="122" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>1704</v>
       </c>
@@ -29565,7 +29572,7 @@
       <c r="CM122" s="6"/>
       <c r="CN122" s="6"/>
     </row>
-    <row r="123" spans="1:92" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>1709</v>
       </c>
@@ -29695,7 +29702,7 @@
       <c r="CM123" s="6"/>
       <c r="CN123" s="6"/>
     </row>
-    <row r="124" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>1714</v>
       </c>
@@ -29833,7 +29840,7 @@
       <c r="CM124" s="6"/>
       <c r="CN124" s="6"/>
     </row>
-    <row r="125" spans="1:92" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:92" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>358</v>
       </c>
@@ -29967,7 +29974,7 @@
       <c r="CM125" s="6"/>
       <c r="CN125" s="6"/>
     </row>
-    <row r="126" spans="1:92" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:92" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>222</v>
       </c>
@@ -30155,7 +30162,7 @@
       <c r="CM126" s="6"/>
       <c r="CN126" s="6"/>
     </row>
-    <row r="127" spans="1:92" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:92" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>375</v>
       </c>
@@ -30281,7 +30288,7 @@
       <c r="CM127" s="6"/>
       <c r="CN127" s="6"/>
     </row>
-    <row r="128" spans="1:92" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:92" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>1740</v>
       </c>
@@ -30367,7 +30374,7 @@
       </c>
       <c r="AP128" s="6"/>
     </row>
-    <row r="129" spans="1:93" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:93" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>1499</v>
       </c>
@@ -30447,7 +30454,7 @@
       </c>
       <c r="AP129" s="6"/>
     </row>
-    <row r="130" spans="1:93" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:93" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>1748</v>
       </c>
@@ -30527,7 +30534,7 @@
       </c>
       <c r="AP130" s="6"/>
     </row>
-    <row r="131" spans="1:93" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:93" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>1752</v>
       </c>
@@ -30607,7 +30614,7 @@
       </c>
       <c r="AP131" s="6"/>
     </row>
-    <row r="132" spans="1:93" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:93" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>1757</v>
       </c>
@@ -30701,7 +30708,7 @@
       </c>
       <c r="AP132" s="6"/>
     </row>
-    <row r="133" spans="1:93" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:93" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>1760</v>
       </c>
@@ -30781,7 +30788,7 @@
       </c>
       <c r="AP133" s="6"/>
     </row>
-    <row r="134" spans="1:93" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:93" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="27" t="s">
         <v>703</v>
       </c>
@@ -30860,7 +30867,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="135" spans="1:93" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:93" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>1789</v>
       </c>
@@ -30920,7 +30927,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="136" spans="1:93" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:93" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>1793</v>
       </c>
@@ -30962,7 +30969,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="137" spans="1:93" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:93" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
         <v>1969</v>
       </c>
@@ -31010,7 +31017,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="138" spans="1:93" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:93" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>1973</v>
       </c>
@@ -31069,7 +31076,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="139" spans="1:93" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:93" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>1979</v>
       </c>
@@ -31140,7 +31147,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="140" spans="1:93" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:93" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>1988</v>
       </c>
@@ -31181,7 +31188,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="141" spans="1:93" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:93" s="12" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>1994</v>
       </c>
@@ -31239,7 +31246,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="142" spans="1:93" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>1999</v>
       </c>
@@ -31308,7 +31315,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="143" spans="1:93" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>2012</v>
       </c>
@@ -31363,7 +31370,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="144" spans="1:93" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:93" s="12" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="29" t="s">
         <v>2013</v>
       </c>
@@ -31412,7 +31419,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="145" spans="1:93" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>2017</v>
       </c>
@@ -31458,7 +31465,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="146" spans="1:93" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="6" t="s">
         <v>84</v>
       </c>
@@ -31517,7 +31524,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="147" spans="1:93" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:93" s="12" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="29" t="s">
         <v>2028</v>
       </c>
@@ -31583,7 +31590,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="148" spans="1:93" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="29" t="s">
         <v>2036</v>
       </c>
@@ -31643,7 +31650,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="149" spans="1:93" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:93" s="12" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
         <v>2043</v>
       </c>
@@ -31692,7 +31699,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="150" spans="1:93" s="12" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:93" s="12" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
         <v>2048</v>
       </c>
@@ -31749,7 +31756,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="151" spans="1:93" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
         <v>2056</v>
       </c>
@@ -31821,7 +31828,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="152" spans="1:93" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:93" s="12" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="29" t="s">
         <v>2064</v>
       </c>
@@ -31879,7 +31886,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="153" spans="1:93" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:93" s="12" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="12" t="s">
         <v>2068</v>
       </c>
@@ -31940,7 +31947,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="154" spans="1:93" s="12" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:93" s="12" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
         <v>2075</v>
       </c>
@@ -32000,7 +32007,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="155" spans="1:93" s="12" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:93" s="12" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="12" t="s">
         <v>2083</v>
       </c>
@@ -32040,7 +32047,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="156" spans="1:93" s="12" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:93" s="12" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
         <v>2087</v>
       </c>
@@ -32097,7 +32104,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="157" spans="1:93" s="12" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:93" s="12" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>2093</v>
       </c>
@@ -32160,7 +32167,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="158" spans="1:93" s="12" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:93" s="12" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
         <v>2101</v>
       </c>
@@ -32215,7 +32222,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="159" spans="1:93" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:93" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="29" t="s">
         <v>2106</v>
       </c>
@@ -32276,7 +32283,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="160" spans="1:93" s="12" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:93" s="12" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
         <v>2111</v>
       </c>
@@ -32336,7 +32343,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="161" spans="1:100" s="12" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:100" s="12" customFormat="1" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="27" t="s">
         <v>2312</v>
       </c>
@@ -32531,7 +32538,7 @@
       <c r="CL161" s="1"/>
       <c r="CM161" s="1"/>
     </row>
-    <row r="162" spans="1:100" s="12" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:100" s="12" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>2335</v>
       </c>
@@ -32714,7 +32721,7 @@
       <c r="CL162" s="1"/>
       <c r="CM162" s="1"/>
     </row>
-    <row r="163" spans="1:100" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:100" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>2351</v>
       </c>
@@ -32882,7 +32889,7 @@
       <c r="CU163" s="1"/>
       <c r="CV163" s="1"/>
     </row>
-    <row r="164" spans="1:100" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:100" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>2368</v>
       </c>
@@ -33074,7 +33081,7 @@
       <c r="CU164" s="1"/>
       <c r="CV164" s="1"/>
     </row>
-    <row r="165" spans="1:100" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:100" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>2389</v>
       </c>
@@ -33232,7 +33239,7 @@
       <c r="CU165" s="1"/>
       <c r="CV165" s="1"/>
     </row>
-    <row r="166" spans="1:100" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:100" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>2401</v>
       </c>
@@ -33454,7 +33461,7 @@
       <c r="CU166" s="1"/>
       <c r="CV166" s="1"/>
     </row>
-    <row r="167" spans="1:100" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:100" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>2424</v>
       </c>
@@ -33624,7 +33631,7 @@
       <c r="CU167" s="1"/>
       <c r="CV167" s="1"/>
     </row>
-    <row r="168" spans="1:100" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:100" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>2440</v>
       </c>
@@ -33830,7 +33837,7 @@
       <c r="CU168" s="1"/>
       <c r="CV168" s="1"/>
     </row>
-    <row r="169" spans="1:100" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:100" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>2464</v>
       </c>
@@ -33998,7 +34005,7 @@
       <c r="CU169" s="1"/>
       <c r="CV169" s="1"/>
     </row>
-    <row r="170" spans="1:100" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:100" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>2476</v>
       </c>
@@ -34186,7 +34193,7 @@
       <c r="CU170" s="1"/>
       <c r="CV170" s="1"/>
     </row>
-    <row r="171" spans="1:100" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:100" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="44" t="s">
         <v>2492</v>
       </c>
@@ -34360,7 +34367,7 @@
       <c r="CU171" s="1"/>
       <c r="CV171" s="1"/>
     </row>
-    <row r="172" spans="1:100" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:100" s="12" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
         <v>2509</v>
       </c>
@@ -34417,7 +34424,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="1:100" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:100" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="12" t="s">
         <v>2515</v>
       </c>
@@ -34474,7 +34481,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="174" spans="1:100" s="12" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:100" s="12" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>2521</v>
       </c>
@@ -34531,7 +34538,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="175" spans="1:100" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:100" s="12" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="12" t="s">
         <v>2526</v>
       </c>
@@ -34583,7 +34590,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="176" spans="1:100" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:100" s="12" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>2532</v>
       </c>
@@ -34640,7 +34647,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="177" spans="1:41" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:41" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="29" t="s">
         <v>2537</v>
       </c>
@@ -34691,7 +34698,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="178" spans="1:41" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>2543</v>
       </c>
@@ -34730,7 +34737,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:41" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>2549</v>
       </c>
@@ -34784,7 +34791,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="180" spans="1:41" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>2556</v>
       </c>
@@ -34835,7 +34842,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="181" spans="1:41" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:41" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="29" t="s">
         <v>2562</v>
       </c>
@@ -34886,7 +34893,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="182" spans="1:41" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>2568</v>
       </c>
@@ -34937,7 +34944,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:41" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:41" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="29" t="s">
         <v>2574</v>
       </c>
@@ -34988,7 +34995,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="184" spans="1:41" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:41" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="45" t="s">
         <v>2579</v>
       </c>
@@ -35036,7 +35043,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="185" spans="1:41" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:41" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>2585</v>
       </c>
@@ -35087,7 +35094,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:41" s="12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" s="12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>2590</v>
       </c>
@@ -35133,7 +35140,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="187" spans="1:41" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:41" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>2595</v>
       </c>
@@ -35184,7 +35191,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="188" spans="1:41" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>2599</v>
       </c>
@@ -35229,7 +35236,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="189" spans="1:41" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:41" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>2615</v>
       </c>
@@ -35280,7 +35287,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="46" t="s">
         <v>2614</v>
       </c>
@@ -35290,139 +35297,139 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="191" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M191" s="34"/>
       <c r="N191" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B139"/>
+  <autoFilter ref="B1:B139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="AI2" r:id="rId1"/>
-    <hyperlink ref="CN2" r:id="rId2"/>
-    <hyperlink ref="CN3" r:id="rId3"/>
-    <hyperlink ref="CN4" r:id="rId4"/>
-    <hyperlink ref="CN5" r:id="rId5"/>
-    <hyperlink ref="AG6" r:id="rId6" display="https://facebook.com/Adriantook"/>
-    <hyperlink ref="AH6" r:id="rId7"/>
-    <hyperlink ref="AI6" r:id="rId8"/>
-    <hyperlink ref="CN6" r:id="rId9"/>
-    <hyperlink ref="CN7" r:id="rId10"/>
-    <hyperlink ref="CN8" r:id="rId11"/>
-    <hyperlink ref="CN9" r:id="rId12"/>
-    <hyperlink ref="CN10" r:id="rId13"/>
-    <hyperlink ref="CN11" r:id="rId14"/>
-    <hyperlink ref="CN12" r:id="rId15"/>
-    <hyperlink ref="AI14" r:id="rId16"/>
-    <hyperlink ref="CN14" r:id="rId17"/>
-    <hyperlink ref="CN15" r:id="rId18"/>
-    <hyperlink ref="CN16" r:id="rId19"/>
-    <hyperlink ref="CN17" r:id="rId20"/>
-    <hyperlink ref="AI18" r:id="rId21"/>
-    <hyperlink ref="CN18" r:id="rId22"/>
-    <hyperlink ref="CN19" r:id="rId23"/>
-    <hyperlink ref="CN20" r:id="rId24"/>
-    <hyperlink ref="CN21" r:id="rId25"/>
-    <hyperlink ref="CN22" r:id="rId26"/>
-    <hyperlink ref="AI23" r:id="rId27"/>
-    <hyperlink ref="CN23" r:id="rId28"/>
-    <hyperlink ref="CN24" r:id="rId29"/>
-    <hyperlink ref="CN25" r:id="rId30"/>
-    <hyperlink ref="CN26" r:id="rId31"/>
-    <hyperlink ref="CN27" r:id="rId32"/>
-    <hyperlink ref="AI28" r:id="rId33"/>
-    <hyperlink ref="CN28" r:id="rId34"/>
-    <hyperlink ref="CN29" r:id="rId35"/>
-    <hyperlink ref="CN30" r:id="rId36"/>
-    <hyperlink ref="CN31" r:id="rId37"/>
-    <hyperlink ref="CN32" r:id="rId38"/>
-    <hyperlink ref="CN33" r:id="rId39"/>
-    <hyperlink ref="CN34" r:id="rId40"/>
-    <hyperlink ref="CN35" r:id="rId41"/>
-    <hyperlink ref="CN36" r:id="rId42"/>
-    <hyperlink ref="CN37" r:id="rId43"/>
-    <hyperlink ref="CN38" r:id="rId44"/>
-    <hyperlink ref="CN39" r:id="rId45"/>
-    <hyperlink ref="CN40" r:id="rId46"/>
-    <hyperlink ref="CN41" r:id="rId47"/>
-    <hyperlink ref="AH42" r:id="rId48"/>
-    <hyperlink ref="AI42" r:id="rId49"/>
-    <hyperlink ref="CN42" r:id="rId50"/>
-    <hyperlink ref="CN43" r:id="rId51"/>
-    <hyperlink ref="CN44" r:id="rId52"/>
-    <hyperlink ref="CN45" r:id="rId53"/>
-    <hyperlink ref="CN46" r:id="rId54"/>
-    <hyperlink ref="CN47" r:id="rId55"/>
-    <hyperlink ref="CN48" r:id="rId56"/>
-    <hyperlink ref="CN49" r:id="rId57"/>
-    <hyperlink ref="AI50" r:id="rId58"/>
-    <hyperlink ref="CN50" r:id="rId59"/>
-    <hyperlink ref="CN51" r:id="rId60"/>
-    <hyperlink ref="CN52" r:id="rId61"/>
-    <hyperlink ref="CN53" r:id="rId62"/>
-    <hyperlink ref="CN54" r:id="rId63"/>
-    <hyperlink ref="CN55" r:id="rId64"/>
-    <hyperlink ref="CN56" r:id="rId65"/>
-    <hyperlink ref="CN57" r:id="rId66"/>
-    <hyperlink ref="CN58" r:id="rId67"/>
-    <hyperlink ref="AG59" r:id="rId68"/>
-    <hyperlink ref="CN59" r:id="rId69"/>
-    <hyperlink ref="CN60" r:id="rId70"/>
-    <hyperlink ref="CN62" r:id="rId71"/>
-    <hyperlink ref="CN63" r:id="rId72"/>
-    <hyperlink ref="CN64" r:id="rId73"/>
-    <hyperlink ref="CN65" r:id="rId74"/>
-    <hyperlink ref="CN66" r:id="rId75"/>
-    <hyperlink ref="AI67" r:id="rId76" display="http://linkedin.com/in/arief-tri-hariyono-137a771ba"/>
-    <hyperlink ref="CN67" r:id="rId77"/>
-    <hyperlink ref="CN68" r:id="rId78"/>
-    <hyperlink ref="CN70" r:id="rId79"/>
-    <hyperlink ref="CN71" r:id="rId80"/>
-    <hyperlink ref="CN72" r:id="rId81"/>
-    <hyperlink ref="CN73" r:id="rId82"/>
-    <hyperlink ref="CN74" r:id="rId83"/>
-    <hyperlink ref="CN76" r:id="rId84"/>
-    <hyperlink ref="CN78" r:id="rId85"/>
-    <hyperlink ref="CN79" r:id="rId86"/>
-    <hyperlink ref="CN80" r:id="rId87"/>
-    <hyperlink ref="CN81" r:id="rId88"/>
-    <hyperlink ref="CN82" r:id="rId89"/>
-    <hyperlink ref="CN83" r:id="rId90"/>
-    <hyperlink ref="CN84" r:id="rId91"/>
-    <hyperlink ref="CN85" r:id="rId92"/>
-    <hyperlink ref="CN86" r:id="rId93"/>
-    <hyperlink ref="CN87" r:id="rId94"/>
-    <hyperlink ref="CN88" r:id="rId95"/>
-    <hyperlink ref="CN89" r:id="rId96"/>
-    <hyperlink ref="CN90" r:id="rId97"/>
-    <hyperlink ref="AI99" r:id="rId98" display="http://linkedin.com/in/alviotatashaniasalsabila"/>
-    <hyperlink ref="A108" r:id="rId99"/>
-    <hyperlink ref="AI110" r:id="rId100" display="http://linkedin.com/in/intancahyaning"/>
-    <hyperlink ref="A134" r:id="rId101"/>
-    <hyperlink ref="A137" r:id="rId102"/>
-    <hyperlink ref="A144" r:id="rId103"/>
-    <hyperlink ref="A147" r:id="rId104"/>
-    <hyperlink ref="A148" r:id="rId105"/>
-    <hyperlink ref="A149" r:id="rId106"/>
-    <hyperlink ref="A152" r:id="rId107"/>
-    <hyperlink ref="A159" r:id="rId108"/>
-    <hyperlink ref="AI161" r:id="rId109" display="http://www.linkedin.com/in/mfahfa"/>
-    <hyperlink ref="A161" r:id="rId110"/>
-    <hyperlink ref="AG163" r:id="rId111" display="http://facebook.com/LidyaAngieWidyasari"/>
-    <hyperlink ref="AH163" r:id="rId112" display="http://instagram.com/lidyaangiew"/>
-    <hyperlink ref="AI163" r:id="rId113"/>
-    <hyperlink ref="CN163" r:id="rId114"/>
-    <hyperlink ref="CN164" r:id="rId115"/>
-    <hyperlink ref="CN165" r:id="rId116"/>
-    <hyperlink ref="CN166" r:id="rId117"/>
-    <hyperlink ref="CN167" r:id="rId118"/>
-    <hyperlink ref="CN168" r:id="rId119"/>
-    <hyperlink ref="CN169" r:id="rId120"/>
-    <hyperlink ref="CN170" r:id="rId121"/>
-    <hyperlink ref="CN171" r:id="rId122"/>
-    <hyperlink ref="A177" r:id="rId123"/>
-    <hyperlink ref="A181" r:id="rId124"/>
-    <hyperlink ref="A183" r:id="rId125"/>
-    <hyperlink ref="A184" r:id="rId126"/>
+    <hyperlink ref="AI2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="CN2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="CN3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="CN4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="CN5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AG6" r:id="rId6" display="https://facebook.com/Adriantook" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AH6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AI6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="CN6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="CN7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="CN8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="CN9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="CN10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="CN11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="CN12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AI14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="CN14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="CN15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="CN16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="CN17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AI18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="CN18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="CN19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="CN20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="CN21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="CN22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AI23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="CN23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="CN24" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="CN25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="CN26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="CN27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AI28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="CN28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="CN29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="CN30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="CN31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="CN32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="CN33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="CN34" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="CN35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="CN36" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="CN37" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="CN38" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="CN39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="CN40" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="CN41" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AH42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AI42" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="CN42" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="CN43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="CN44" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="CN45" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="CN46" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="CN47" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="CN48" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="CN49" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AI50" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="CN50" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="CN51" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="CN52" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="CN53" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="CN54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="CN55" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="CN56" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="CN57" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="CN58" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AG59" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="CN59" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="CN60" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="CN62" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="CN63" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="CN64" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="CN65" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="CN66" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AI67" r:id="rId76" display="http://linkedin.com/in/arief-tri-hariyono-137a771ba" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="CN67" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="CN68" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="CN70" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="CN71" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="CN72" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="CN73" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="CN74" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="CN76" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="CN78" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="CN79" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="CN80" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="CN81" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="CN82" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="CN83" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="CN84" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="CN85" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="CN86" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="CN87" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="CN88" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="CN89" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="CN90" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="AI99" r:id="rId98" display="http://linkedin.com/in/alviotatashaniasalsabila" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A108" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="AI110" r:id="rId100" display="http://linkedin.com/in/intancahyaning" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A134" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A137" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A144" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A147" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A148" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A149" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A152" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A159" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="AI161" r:id="rId109" display="http://www.linkedin.com/in/mfahfa" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A161" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="AG163" r:id="rId111" display="http://facebook.com/LidyaAngieWidyasari" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="AH163" r:id="rId112" display="http://instagram.com/lidyaangiew" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="AI163" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="CN163" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="CN164" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="CN165" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="CN166" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="CN167" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="CN168" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="CN169" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="CN170" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="CN171" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A177" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A181" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A183" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A184" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
